--- a/results/23_2_2018.xlsx
+++ b/results/23_2_2018.xlsx
@@ -1909,6 +1909,1017 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>84.5017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.612699999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.528400000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.560500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.483099999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.828999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.600299999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.632099999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.640699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.002499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>84.5017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.612699999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.528400000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.560500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.483099999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.828999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.600299999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.632099999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.640699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.002499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>84.5017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.612699999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.528400000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.560500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.483099999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.828999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.600299999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.632099999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.640699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.002499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>84.5017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.612699999999904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.528400000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.560500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.483099999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.675200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.828999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.705500000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.600299999999905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72.010999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.632099999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.640699999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.005799999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.002499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$19:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>84.122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.226299999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.171000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.631399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.142600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.172299999999893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.083199999999906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76.256100000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.859200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.341200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.172799999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.115200000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.588200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.211500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.198499999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.498599999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.492099999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>61.611699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.360700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.197499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.567999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.951599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.985500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.842799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.040999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.759500000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.223299999999902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.397199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.296399999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.6541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.044199999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.4375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.544899999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.3611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>74.495500000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.325199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.178600000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.554699999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.930400000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.964799999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.769900000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65.934799999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.588300000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.076099999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.982099999999903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.8733</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.262499999999903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.163899999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.339700000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.597499999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.518299999999897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>106.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.08</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FB81-42FC-A193-37765BF92600}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1061400543"/>
+        <c:axId val="1061393471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1061400543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061393471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1061393471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1061400543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2029,6 +3040,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3224,6 +4275,509 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3664,6 +5218,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3938,7 +5522,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4379,6 +5963,9 @@
       <c r="G19" s="1">
         <v>74.495500000000007</v>
       </c>
+      <c r="H19">
+        <v>106.77</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -4402,6 +5989,9 @@
       <c r="G20" s="1">
         <v>72.325199999999995</v>
       </c>
+      <c r="H20">
+        <v>96.29</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -4425,6 +6015,9 @@
       <c r="G21" s="1">
         <v>71.178600000000003</v>
       </c>
+      <c r="H21">
+        <v>100.7</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -4448,6 +6041,9 @@
       <c r="G22" s="1">
         <v>70.554699999999997</v>
       </c>
+      <c r="H22">
+        <v>98.23</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -4471,6 +6067,9 @@
       <c r="G23" s="1">
         <v>68.930400000000006</v>
       </c>
+      <c r="H23">
+        <v>93.84</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -4494,6 +6093,9 @@
       <c r="G24" s="1">
         <v>68.964799999999997</v>
       </c>
+      <c r="H24">
+        <v>93.91</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -4517,6 +6119,9 @@
       <c r="G25" s="1">
         <v>66.769900000000007</v>
       </c>
+      <c r="H25">
+        <v>88.15</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -4540,6 +6145,9 @@
       <c r="G26" s="1">
         <v>65.934799999999996</v>
       </c>
+      <c r="H26">
+        <v>90.18</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -4563,6 +6171,9 @@
       <c r="G27" s="1">
         <v>64.588300000000004</v>
       </c>
+      <c r="H27">
+        <v>88.94</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -4586,6 +6197,9 @@
       <c r="G28" s="1">
         <v>65.076099999999997</v>
       </c>
+      <c r="H28">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -4609,6 +6223,9 @@
       <c r="G29" s="1">
         <v>60.982099999999903</v>
       </c>
+      <c r="H29">
+        <v>77.44</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -4632,6 +6249,9 @@
       <c r="G30" s="1">
         <v>60.8733</v>
       </c>
+      <c r="H30">
+        <v>81.17</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -4655,6 +6275,9 @@
       <c r="G31" s="1">
         <v>61.262499999999903</v>
       </c>
+      <c r="H31">
+        <v>78.69</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -4678,8 +6301,11 @@
       <c r="G32" s="1">
         <v>56.163899999999998</v>
       </c>
+      <c r="H32">
+        <v>74.38</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>64.640699999999995</v>
       </c>
@@ -4701,8 +6327,11 @@
       <c r="G33" s="1">
         <v>54.339700000000001</v>
       </c>
+      <c r="H33">
+        <v>69.81</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>66.005799999999994</v>
       </c>
@@ -4724,8 +6353,11 @@
       <c r="G34" s="1">
         <v>55.597499999999997</v>
       </c>
+      <c r="H34">
+        <v>71.900000000000006</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>67.002499999999998</v>
       </c>
@@ -4746,6 +6378,9 @@
       </c>
       <c r="G35" s="1">
         <v>56.518299999999897</v>
+      </c>
+      <c r="H35">
+        <v>74.08</v>
       </c>
     </row>
   </sheetData>
